--- a/m02/doc/Sub001Control.xlsx
+++ b/m02/doc/Sub001Control.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E09121-8301-4FD8-B30E-26D6712597CD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="setting.ini" sheetId="5" r:id="rId1"/>
@@ -15,8 +16,8 @@
     <sheet name="state-chart" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,250 +27,133 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
+    <t>thumbnail</t>
+  </si>
+  <si>
+    <t>this.init();</t>
+  </si>
+  <si>
+    <t>this.update();</t>
+  </si>
+  <si>
+    <t>this.isDone()</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>this.NoWait();</t>
+  </si>
+  <si>
+    <t>100001</t>
+  </si>
+  <si>
+    <t>100002</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
     <t>ステート関数</t>
-    <rPh sb="4" eb="6">
-      <t>カンスウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>S_START</t>
+  </si>
+  <si>
+    <t>S_END</t>
+  </si>
+  <si>
+    <t>S_INIT</t>
+  </si>
+  <si>
+    <t>S_UPDATE</t>
+  </si>
+  <si>
+    <t>S_DESTROY</t>
+  </si>
+  <si>
+    <t>state-cmt</t>
+  </si>
+  <si>
+    <t>ステート関数説明</t>
+  </si>
+  <si>
+    <t>開始</t>
+  </si>
+  <si>
+    <t>終了</t>
+  </si>
+  <si>
+    <t>初期化</t>
+  </si>
+  <si>
+    <t>更新</t>
+  </si>
+  <si>
+    <t>終了処理</t>
+  </si>
+  <si>
+    <t>nextstate</t>
   </si>
   <si>
     <t>次ステート</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ステート関数説明</t>
-    <rPh sb="4" eb="6">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>thumbnail</t>
-  </si>
-  <si>
-    <t>開始</t>
-    <rPh sb="0" eb="2">
-      <t>カイシ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>終了</t>
-    <rPh sb="0" eb="2">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>state</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>S_START</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>S_END</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>S_INIT</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>S_UPDATE</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>S_DESTROY</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>state-cmt</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>初期化</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>更新</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>終了処理</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>nextstate</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tep</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nit</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>this.init();</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>init</t>
   </si>
   <si>
     <t>this.destroy();
 this.OutOfDate();</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pdate</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>this.update();</t>
-  </si>
-  <si>
-    <r>
-      <t>w</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ait</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>this.isDone()</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>wait</t>
   </si>
   <si>
     <t>branch</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>branch-cmt</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>nowait</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>this.NoWait();</t>
-  </si>
-  <si>
-    <r>
-      <t>!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dir</t>
-    </r>
-    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>!dir</t>
   </si>
   <si>
     <t>/
 (0,0)
 This is the root</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>uuid</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>100001</t>
-  </si>
-  <si>
-    <t>100002</t>
+  </si>
+  <si>
+    <t>!uuid</t>
   </si>
   <si>
     <t>100003</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>100004</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>100005</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/06/18 13:44:37
+  </si>
+  <si>
+    <t xml:space="preserve">; The setting was created automatically. 2018/07/18 16:31:21
+; * pssgEditor version : 0.7.0.b0081ca2ae62b99c38b127566c8ee8eedac0f9a6
+psggfile=@@@
+Sub001Control.psgg
+@@@
 xlsfile=@@@
 Sub001Control.xlsx
+@@@
+guid=@@@
+5ec6bcbe-33c8-4755-a52c-ef9e625d0767
 @@@
 bitmap_width=5000
 bitmap_height=2000
@@ -277,14 +161,21 @@
 c_thumbnail=1
 c_contents=1
 force_display_outpin=0
+last_action=@@@
+Initilized
+@@@
+target_pathdir=@@@
+/
+@@@
 state_location_list=@@@
 @@@
 fillter_state_location_list=@@@
-[{"Key":"\/","Value":[{"Key":"rS_START","Value":{"x":59.639328,"y":66.37854}},{"Key":"rS_LOADING","Value":{"x":217.455811,"y":59.10959}},{"Key":"rS_DBGMENU","Value":{"x":391.506866,"y":58.0410919}},{"Key":"rS_DBGITM","Value":{"x":557.1781,"y":223.561646}},{"Key":"rS_TITLE","Value":{"x":555.8493,"y":33.69863}},{"Key":"rS_OPENING","Value":{"x":724.1233,"y":113.287674}},{"Key":"rS_ROOMA","Value":{"x":561.9092,"y":363}},{"Key":"rS_ROOMA_0","Value":{"x":561.9092,"y":363}},{"Key":"rS_ROOMA_0a","Value":{"x":561.9092,"y":363}},{"Key":"rS_ROOMA_1","Value":{"x":561.9092,"y":363}},{"Key":"rS_ROOMB","Value":{"x":574.9092,"y":555}},{"Key":"rS_ROOMD_2","Value":{"x":590.9092,"y":898}},{"Key":"rS_GOAL","Value":{"x":590.9092,"y":898}},{"Key":"rS_END","Value":{"x":61.877,"y":136.081314}},{"Key":"rS_HAKO","Value":{"x":136,"y":581.181763}},{"Key":"rS_HAKO_0","Value":{"x":330.5758,"y":566.3333}},{"Key":"rS_ROOMC_0","Value":{"x":577.9092,"y":728}},{"Key":"rS_ROOMB_0a","Value":{"x":574.9092,"y":555}},{"Key":"rS_ROOMB_1","Value":{"x":574.9092,"y":555}},{"Key":"rS_ROOMC_1","Value":{"x":577.9092,"y":728}},{"Key":"rS_ROOMC","Value":{"x":577.9092,"y":728}},{"Key":"rS_ROOMC_0a","Value":{"x":577.9092,"y":728}},{"Key":"rS_ROOMD","Value":{"x":590.9092,"y":898}},{"Key":"rS_ROOMD_1","Value":{"x":590.9092,"y":898}},{"Key":"rS_ROOMD_1a","Value":{"x":590.9092,"y":898}},{"Key":"rS_ROOMD_2a","Value":{"x":590.9092,"y":898}},{"Key":"rS_ROOMD_2b","Value":{"x":590.9092,"y":898}},{"Key":"rS_ROOMD_2c","Value":{"x":590.9092,"y":898}},{"Key":"rS_ROOMB_0","Value":{"x":574.9092,"y":555}},{"Key":"rS_ROOMD_1ax","Value":{"x":590.9092,"y":898}},{"Key":"S_START","Value":{"x":37.6470566,"y":78.8823547}},{"Key":"S_END","Value":{"x":943.5097,"y":100.823547}},{"Key":"S_START0","Value":{"x":167,"y":294}},{"Key":"S_CHECKEVENT","Value":{"x":212,"y":49}},{"Key":"S_END0","Value":{"x":600,"y":239}},{"Key":"S_LOGINPAGE","Value":{"x":446,"y":181}},{"Key":"S_DrawTopPage","Value":{"x":445,"y":56}},{"Key":"S_DrawTopPage0","Value":{"x":618,"y":213}},{"Key":"S_DoLogin","Value":{"x":387.4118,"y":440.6471}},{"Key":"S_1","Value":{"x":823,"y":297}},{"Key":"S_DrawCalc_1","Value":{"x":624,"y":58}},{"Key":"S_DoCalc","Value":{"x":626.1765,"y":240.058868}},{"Key":"S_DrawCalc","Value":{"x":668,"y":51}},{"Key":"S_DrawResult","Value":{"x":632.705933,"y":335.7647}},{"Key":"S_DrawTestPage","Value":{"x":676,"y":267.666656}},{"Key":"S_Test001","Value":{"x":939.215759,"y":247.353}},{"Key":"S_Test2","Value":{"x":935.000061,"y":440.000031}},{"Key":"S_Test3","Value":{"x":940.000244,"y":571.6667}},{"Key":"S_Test4","Value":{"x":931.6669,"y":730.000061}},{"Key":"S_Test002","Value":{"x":943.235352,"y":340.000031}},{"Key":"S_Test003","Value":{"x":943.529663,"y":435.1961}},{"Key":"S_Test004","Value":{"x":947.8433,"y":534.9019}},{"Key":"S_Test5","Value":{"x":950.1962,"y":729.0196}},{"Key":"S_Test005","Value":{"x":946.6669,"y":639.6078}},{"Key":"S_Test6","Value":{"x":959.6079,"y":763.137268}},{"Key":"S_Test006","Value":{"x":950.196167,"y":736.0784}},{"Key":"S_Test7","Value":{"x":951.3726,"y":877.255}},{"Key":"S_Test8","Value":{"x":954.902,"y":991.3727}},{"Key":"S_Test9","Value":{"x":958.4315,"y":1098.43152}},{"Key":"S_Test007","Value":{"x":952.5491,"y":840.7844}},{"Key":"S_Test008","Value":{"x":958.4314,"y":937.255}},{"Key":"S_Test009","Value":{"x":959.608032,"y":1033.72559}},{"Key":"S_SETUP","Value":{"x":335,"y":336}},{"Key":"S_INIT","Value":{"x":265,"y":81}},{"Key":"S_BUTTONS","Value":{"x":265,"y":81}},{"Key":"S_TEST0001","Value":{"x":827,"y":51}},{"Key":"S_TEST002","Value":{"x":820,"y":163}},{"Key":"S_TEST003","Value":{"x":822,"y":287}},{"Key":"S_TEST4","Value":{"x":829,"y":405}},{"Key":"S_TEST5","Value":{"x":831,"y":496}},{"Key":"S_TEST6","Value":{"x":835,"y":605}},{"Key":"S_UPDATE","Value":{"x":512,"y":81}},{"Key":"S_DESTROY","Value":{"x":727,"y":90}}]},{"Key":"\/ROOMA\/","Value":[{"Key":"rS_ROOMA","Value":{"x":399,"y":118}},{"Key":"rS_ROOMA_0","Value":{"x":631,"y":118}},{"Key":"rS_ROOMA_0a","Value":{"x":844,"y":130}},{"Key":"rS_ROOMA_1","Value":{"x":633.085144,"y":333.127655}},{"Key":"rS_HAKO","Value":{"x":45.02131,"y":96.80846}},{"Key":"rS_HAKO_0","Value":{"x":213.191528,"y":97.87239}}]},{"Key":"\/ROOMB\/","Value":[{"Key":"rS_ROOMB","Value":{"x":471,"y":385}},{"Key":"rS_HAKO","Value":{"x":47,"y":387}},{"Key":"rS_HAKO_0","Value":{"x":245,"y":350}},{"Key":"rS_ROOMB_0a","Value":{"x":1012,"y":370}},{"Key":"rS_ROOMB_1","Value":{"x":731,"y":485}},{"Key":"rS_ROOMB_0","Value":{"x":735,"y":368}}]},{"Key":"\/ROOMC\/","Value":[{"Key":"rS_HAKO","Value":{"x":50,"y":100}},{"Key":"rS_HAKO_0","Value":{"x":282,"y":100}},{"Key":"rS_ROOMC_0","Value":{"x":701,"y":104}},{"Key":"rS_ROOMC_1","Value":{"x":714,"y":236}},{"Key":"rS_ROOMC","Value":{"x":546,"y":159}},{"Key":"rS_ROOMC_0a","Value":{"x":1019,"y":137}}]},{"Key":"\/ROOMD\/","Value":[{"Key":"rS_TITLE","Value":{"x":73,"y":104}},{"Key":"rS_ROOMD_2","Value":{"x":786.5,"y":674.5}},{"Key":"rS_GOAL","Value":{"x":1492,"y":320}},{"Key":"rS_HAKO","Value":{"x":764,"y":317}},{"Key":"rS_HAKO_0","Value":{"x":213,"y":284}},{"Key":"rS_ROOMD","Value":{"x":471,"y":394}},{"Key":"rS_ROOMD_1","Value":{"x":773.25,"y":381.25}},{"Key":"rS_ROOMD_1a","Value":{"x":1114,"y":330}},{"Key":"rS_ROOMD_2a","Value":{"x":956.461548,"y":690}},{"Key":"rS_ROOMD_2b","Value":{"x":1128,"y":704}},{"Key":"rS_ROOMD_2c","Value":{"x":1328,"y":688}},{"Key":"rS_ROOMD_1ax","Value":{"x":778,"y":530}}]}]
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":37.6470566,"y":78.8823547}},{"Key":"S_END","Value":{"x":943.5097,"y":100.823547}},{"Key":"S_INIT","Value":{"x":265,"y":81}},{"Key":"S_UPDATE","Value":{"x":512,"y":81}},{"Key":"S_DESTROY","Value":{"x":727,"y":90}}]}]
 @@@
 linecolor_data=@@@
 [{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
 @@@
+use_external_command=0
 external_command=@@@
 @@@
 source_editor=@@@
@@ -294,6 +185,14 @@
 @@@
 option_delete_thisstring=0
 option_delete_br_string=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=45
+line_space=-4
 </t>
   </si>
   <si>
@@ -313,7 +212,6 @@
     $contents2$_x000D_
 }_x000D_
 </t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t xml:space="preserve">/*_x000D_
@@ -355,12 +253,11 @@
     }_x000D_
 }_x000D_
 </t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t xml:space="preserve">[setting]_x000D_
 _x000D_
-converter=ExcelStateChartConverter.exe_x000D_
+converter=psggConverterLib.dll_x000D_
 _x000D_
 viewbat=Sub001Control_view.bat_x000D_
 xls=Sub001Control.xlsx_x000D_
@@ -437,7 +334,6 @@
 [2018.6.12]_x000D_
 @@@_x000D_
 </t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>; -----_x000D_
@@ -550,27 +446,18 @@
 en=@@@_x000D_
 System uses this for the uuid of the state._x000D_
 @@@</t>
-    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -792,109 +679,103 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="3" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="8" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1175,14 +1056,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1190,19 +1071,19 @@
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="26" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1210,18 +1091,18 @@
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="26" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1229,18 +1110,18 @@
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="26" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1248,41 +1129,41 @@
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="26" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="26" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1291,377 +1172,477 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="16384" width="15.625" style="7"/>
+    <col min="1" max="16384" width="15.625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="144.75" customHeight="1">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" s="5" customFormat="1">
+      <c r="A2" s="13"/>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18" customHeight="1">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18" customHeight="1">
+      <c r="A4" s="17"/>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18" customHeight="1">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" ht="18" customHeight="1">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="18" customHeight="1">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" ht="18" customHeight="1">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18" customHeight="1">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="18" customHeight="1">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" ht="18" customHeight="1">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" ht="18" customHeight="1">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" s="11" customFormat="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="18" customHeight="1">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-    </row>
-    <row r="6" spans="1:8" ht="18" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-    </row>
-    <row r="7" spans="1:8" ht="18" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-    </row>
-    <row r="8" spans="1:8" ht="18" customHeight="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="18" customHeight="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-    </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="G10" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-    </row>
-    <row r="12" spans="1:8" ht="18" customHeight="1">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="G12" s="19" t="s">
-        <v>24</v>
-      </c>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="17"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="18"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="18"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="20"/>
       <c r="B32" s="21" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C32" s="21"/>
       <c r="D32" s="21"/>
-      <c r="E32" s="22"/>
-      <c r="G32" s="19" t="s">
-        <v>26</v>
-      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="H34" s="19" t="s">
-        <v>29</v>
-      </c>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="24"/>
+      <c r="F34" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" ht="18.75" customHeight="1">
-      <c r="B36" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H36" s="14" t="s">
-        <v>31</v>
+      <c r="A36" s="6"/>
+      <c r="B36" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="18.75" customHeight="1">
-      <c r="B37" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="28" t="s">
+      <c r="A37" s="6"/>
+      <c r="B37" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="14" t="s">
+      <c r="C37" s="6"/>
+      <c r="D37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G37" s="14" t="s">
+      <c r="G37" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H37" s="14" t="s">
+      <c r="H37" s="6" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/m02/doc/Sub001Control.xlsx
+++ b/m02/doc/Sub001Control.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E09121-8301-4FD8-B30E-26D6712597CD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C040F1-A216-4C74-A481-B1B1B301AA49}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -255,6 +255,118 @@
 </t>
   </si>
   <si>
+    <t>; -----_x000D_
+; 項目説明_x000D_
+; -----_x000D_
+_x000D_
+[state]_x000D_
+jpn=@@@_x000D_
+ステート名を指定する。_x000D_
+英文字、数字、アンダーバーで構成される。_x000D_
+先頭は英文字およびアンダーバー。_x000D_
+@@@_x000D_
+en=@@@_x000D_
+Specify a state name._x000D_
+The state name consits of alphabet, number and underbar except that the head characther should be alphabet or a underbar._x000D_
+@@@_x000D_
+_x000D_
+[thumbnail]_x000D_
+jpn=@@@_x000D_
+説明用のイメージを指定する。_x000D_
+@@@_x000D_
+en=@@@_x000D_
+Specify a image for explanation of this state._x000D_
+@@@_x000D_
+_x000D_
+[init]_x000D_
+jpn=@@@_x000D_
+初期化用処理を指定する。_x000D_
+@@@_x000D_
+en=@@@_x000D_
+Specify a initial process._x000D_
+@@@_x000D_
+_x000D_
+[update]_x000D_
+jpn=@@@_x000D_
+更新処理を指定する。_x000D_
+@@@_x000D_
+en=@@@_x000D_
+Specify a update process._x000D_
+@@@_x000D_
+_x000D_
+[wait]_x000D_
+jpn=@@@_x000D_
+待ち条件を指定する。_x000D_
+true時にループを解除する。_x000D_
+@@@_x000D_
+en=@@@_x000D_
+Specify a waiting condition._x000D_
+Release the loop if the condition is true._x000D_
+@@@_x000D_
+_x000D_
+[post_wait]_x000D_
+jpn=@@@_x000D_
+'wait'後の処理を指定する。_x000D_
+@@@_x000D_
+en=@@@_x000D_
+Specify the post process after 'wait'._x000D_
+@@@_x000D_
+_x000D_
+[branch]_x000D_
+jpn=@@@_x000D_
+分岐処理を指定する。_x000D_
+１行に一つの分岐命令を書く。_x000D_
+GUIにより上書きされるため引数は適当に指定する。_x000D_
+例）_x000D_
+br_YES(?);_x000D_
+br_NO(?);_x000D_
+br_UNKNOWN(?);_x000D_
+@@@_x000D_
+en=@@@_x000D_
+Specify branch functions._x000D_
+Each line has a branch function._x000D_
+Specify a tentavie parameter for each branch function because GUI overwrites the parameter._x000D_
+i.e)_x000D_
+br_YES(?);_x000D_
+br_NO(?);_x000D_
+br_UNKNOWN(?);_x000D_
+@@@_x000D_
+_x000D_
+[nextstate]_x000D_
+jpn=@@@_x000D_
+次に実行するステートを指定する。_x000D_
+@@@_x000D_
+en=@@@_x000D_
+Specify the next state to be executed._x000D_
+@@@_x000D_
+_x000D_
+[nowait]_x000D_
+jpn=@@@_x000D_
+次のステートへ同期待ちをせず実行する時に 'yes'を指定する。_x000D_
+同期待ち時には何も指定しない。_x000D_
+@@@_x000D_
+en=@@@_x000D_
+Specify 'yes' if the next state will be execute without a sync wait._x000D_
+Do not specify any word wheh the next state will be execute with a sync wait._x000D_
+@@@_x000D_
+_x000D_
+[!dir]_x000D_
+jpn=@@@_x000D_
+システムがステートのディレクトリ指定に使用。_x000D_
+@@@_x000D_
+en=@@@_x000D_
+System uses this for the directory path of the state._x000D_
+@@@_x000D_
+_x000D_
+[!uuid]_x000D_
+jpn=@@@_x000D_
+システムがステートのuuid指定に使用。_x000D_
+@@@_x000D_
+en=@@@_x000D_
+System uses this for the uuid of the state._x000D_
+@@@</t>
+  </si>
+  <si>
     <t xml:space="preserve">[setting]_x000D_
 _x000D_
 converter=psggConverterLib.dll_x000D_
@@ -282,6 +394,11 @@
 gendir=C:\Project\angular\m02\my-app\src\app\state\src_x000D_
 genrdir=..\my-app\src\app\state\src_x000D_
 _x000D_
+[macro]
+; This section has macro defines for converting.
+; commentline format  {%0} will be replaced to a comment.
+commentline=// {%0}
+@branch=this.{%0}(this.{%1})
 [jpn]_x000D_
 title=Angular typescript サンプル１_x000D_
 _x000D_
@@ -334,118 +451,7 @@
 [2018.6.12]_x000D_
 @@@_x000D_
 </t>
-  </si>
-  <si>
-    <t>; -----_x000D_
-; 項目説明_x000D_
-; -----_x000D_
-_x000D_
-[state]_x000D_
-jpn=@@@_x000D_
-ステート名を指定する。_x000D_
-英文字、数字、アンダーバーで構成される。_x000D_
-先頭は英文字およびアンダーバー。_x000D_
-@@@_x000D_
-en=@@@_x000D_
-Specify a state name._x000D_
-The state name consits of alphabet, number and underbar except that the head characther should be alphabet or a underbar._x000D_
-@@@_x000D_
-_x000D_
-[thumbnail]_x000D_
-jpn=@@@_x000D_
-説明用のイメージを指定する。_x000D_
-@@@_x000D_
-en=@@@_x000D_
-Specify a image for explanation of this state._x000D_
-@@@_x000D_
-_x000D_
-[init]_x000D_
-jpn=@@@_x000D_
-初期化用処理を指定する。_x000D_
-@@@_x000D_
-en=@@@_x000D_
-Specify a initial process._x000D_
-@@@_x000D_
-_x000D_
-[update]_x000D_
-jpn=@@@_x000D_
-更新処理を指定する。_x000D_
-@@@_x000D_
-en=@@@_x000D_
-Specify a update process._x000D_
-@@@_x000D_
-_x000D_
-[wait]_x000D_
-jpn=@@@_x000D_
-待ち条件を指定する。_x000D_
-true時にループを解除する。_x000D_
-@@@_x000D_
-en=@@@_x000D_
-Specify a waiting condition._x000D_
-Release the loop if the condition is true._x000D_
-@@@_x000D_
-_x000D_
-[post_wait]_x000D_
-jpn=@@@_x000D_
-'wait'後の処理を指定する。_x000D_
-@@@_x000D_
-en=@@@_x000D_
-Specify the post process after 'wait'._x000D_
-@@@_x000D_
-_x000D_
-[branch]_x000D_
-jpn=@@@_x000D_
-分岐処理を指定する。_x000D_
-１行に一つの分岐命令を書く。_x000D_
-GUIにより上書きされるため引数は適当に指定する。_x000D_
-例）_x000D_
-br_YES(?);_x000D_
-br_NO(?);_x000D_
-br_UNKNOWN(?);_x000D_
-@@@_x000D_
-en=@@@_x000D_
-Specify branch functions._x000D_
-Each line has a branch function._x000D_
-Specify a tentavie parameter for each branch function because GUI overwrites the parameter._x000D_
-i.e)_x000D_
-br_YES(?);_x000D_
-br_NO(?);_x000D_
-br_UNKNOWN(?);_x000D_
-@@@_x000D_
-_x000D_
-[nextstate]_x000D_
-jpn=@@@_x000D_
-次に実行するステートを指定する。_x000D_
-@@@_x000D_
-en=@@@_x000D_
-Specify the next state to be executed._x000D_
-@@@_x000D_
-_x000D_
-[nowait]_x000D_
-jpn=@@@_x000D_
-次のステートへ同期待ちをせず実行する時に 'yes'を指定する。_x000D_
-同期待ち時には何も指定しない。_x000D_
-@@@_x000D_
-en=@@@_x000D_
-Specify 'yes' if the next state will be execute without a sync wait._x000D_
-Do not specify any word wheh the next state will be execute with a sync wait._x000D_
-@@@_x000D_
-_x000D_
-[!dir]_x000D_
-jpn=@@@_x000D_
-システムがステートのディレクトリ指定に使用。_x000D_
-@@@_x000D_
-en=@@@_x000D_
-System uses this for the directory path of the state._x000D_
-@@@_x000D_
-_x000D_
-[!uuid]_x000D_
-jpn=@@@_x000D_
-システムがステートのuuid指定に使用。_x000D_
-@@@_x000D_
-en=@@@_x000D_
-System uses this for the uuid of the state._x000D_
-@@@</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1072,7 +1078,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1092,7 +1098,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1167,7 +1173,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18.75"/>
